--- a/web/excel/horti_sayur.xlsx
+++ b/web/excel/horti_sayur.xlsx
@@ -24,10 +24,7 @@
     <t>Bawang Merah</t>
   </si>
   <si>
-    <t>Bawang Putih</t>
-  </si>
-  <si>
-    <t>Bawang Daun</t>
+    <t>Cabai</t>
   </si>
   <si>
     <t>Kentang</t>
@@ -36,10 +33,16 @@
     <t>Kubis</t>
   </si>
   <si>
-    <t>Kembang Kol</t>
+    <t>Petsai</t>
   </si>
   <si>
-    <t>Petai</t>
+    <t>Bawang Putih</t>
+  </si>
+  <si>
+    <t>Bawang Daun</t>
+  </si>
+  <si>
+    <t>Kembang Kol</t>
   </si>
   <si>
     <t>Wortel</t>
@@ -52,9 +55,6 @@
   </si>
   <si>
     <t>Kacang Panjang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabe Besar </t>
   </si>
   <si>
     <t>Cabe Rawit</t>
@@ -94,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -109,26 +109,11 @@
       <sz val="12.0"/>
       <name val="Calibri"/>
     </font>
+    <font/>
     <font>
-      <b/>
-      <color rgb="FF000000"/>
-      <name val="Sans-serif"/>
+      <sz val="11.0"/>
+      <name val="Calibri"/>
     </font>
-    <font>
-      <color rgb="FF444444"/>
-      <name val="Sans-serif"/>
-    </font>
-    <font>
-      <sz val="7.0"/>
-      <color rgb="FF444444"/>
-      <name val="Sans-serif"/>
-    </font>
-    <font>
-      <i/>
-      <color rgb="FF444444"/>
-      <name val="Sans-serif"/>
-    </font>
-    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -158,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -173,41 +158,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="top"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -241,9 +196,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="34.29"/>
     <col customWidth="1" min="2" max="2" width="19.14"/>
-    <col customWidth="1" min="3" max="4" width="8.71"/>
-    <col customWidth="1" min="5" max="5" width="21.29"/>
-    <col customWidth="1" min="6" max="26" width="8.71"/>
+    <col customWidth="1" min="3" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -258,476 +211,146 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
-        <v>1290.0</v>
-      </c>
+      <c r="B2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>19590.0</v>
-      </c>
+      <c r="B3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.0</v>
-      </c>
+      <c r="B5" s="4"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="10"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="E7" s="6"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="10"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="E8" s="6"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="10"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="10"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="10"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="10"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="10"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="10"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="10"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="E15" s="6"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-      <c r="R15" s="10"/>
+      <c r="B15" s="6"/>
     </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="E16" s="6"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="10"/>
+      <c r="B16" s="6"/>
     </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="E17" s="6"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="10"/>
+      <c r="B17" s="6"/>
     </row>
-    <row r="18">
-      <c r="A18" s="14" t="s">
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="E18" s="6"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="10"/>
+      <c r="B18" s="6"/>
     </row>
-    <row r="19">
-      <c r="A19" s="14" t="s">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="E19" s="6"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="10"/>
+      <c r="B19" s="6"/>
     </row>
-    <row r="20">
-      <c r="A20" s="14" t="s">
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="E20" s="6"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="10"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="E21" s="6"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="10"/>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="E22" s="6"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="10"/>
+      <c r="B22" s="6"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="E23" s="6"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="10"/>
+      <c r="B23" s="6"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="E24" s="6"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="10"/>
+      <c r="B24" s="6"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="E25" s="6"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="10"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="E26" s="6"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="10"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="E27" s="6"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="10"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="E28" s="6"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="10"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="E29" s="6"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="12"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="10"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="E30" s="6"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="6"/>
-    </row>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
     <row r="31" ht="15.75" customHeight="1"/>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
@@ -1693,11 +1316,6 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
